--- a/summary_util_resources.xlsx
+++ b/summary_util_resources.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Original_FPS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FPS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AXI_LUT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>FINN_LUT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AXI_DFF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FINN_DFF</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AXI_BRAM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FINN_BRAM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>AXI_DSP</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FINN_DSP</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Essential_Bits</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
         </is>
       </c>
     </row>
@@ -502,34 +497,35 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" t="n">
         <v>542</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>8678</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4474</v>
       </c>
-      <c r="E2" t="n">
-        <v>12632</v>
-      </c>
       <c r="F2" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G2" t="n">
         <v>5611</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,34 +534,35 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="n">
         <v>6504</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>8669</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4795</v>
       </c>
-      <c r="E3" t="n">
-        <v>12632</v>
-      </c>
       <c r="F3" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G3" t="n">
         <v>6306</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,34 +571,35 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C4" t="n">
         <v>16261</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>8675</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>8392</v>
       </c>
-      <c r="E4" t="n">
-        <v>12632</v>
-      </c>
       <c r="F4" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G4" t="n">
         <v>9860</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
         <v>5.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,34 +608,35 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>500</v>
+      </c>
+      <c r="C5" t="n">
         <v>542</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>8671</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>6006</v>
       </c>
-      <c r="E5" t="n">
-        <v>12632</v>
-      </c>
       <c r="F5" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G5" t="n">
         <v>9883</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -646,34 +645,35 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C6" t="n">
         <v>6504</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>8670</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>6486</v>
       </c>
-      <c r="E6" t="n">
-        <v>12632</v>
-      </c>
       <c r="F6" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G6" t="n">
         <v>10709</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>10.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,34 +682,35 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C7" t="n">
         <v>16261</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>8670</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>12330</v>
       </c>
-      <c r="E7" t="n">
-        <v>12632</v>
-      </c>
       <c r="F7" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G7" t="n">
         <v>15449</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" t="n">
         <v>8.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,34 +719,35 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>500</v>
+      </c>
+      <c r="C8" t="n">
         <v>542</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>8676</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>13524</v>
       </c>
-      <c r="E8" t="n">
-        <v>12632</v>
-      </c>
       <c r="F8" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G8" t="n">
         <v>19152</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>13</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -754,34 +756,35 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C9" t="n">
         <v>6504</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>8675</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>14683</v>
       </c>
-      <c r="E9" t="n">
-        <v>12632</v>
-      </c>
       <c r="F9" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G9" t="n">
         <v>20399</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -790,34 +793,35 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C10" t="n">
         <v>16261</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>8675</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>39703</v>
       </c>
-      <c r="E10" t="n">
-        <v>12632</v>
-      </c>
       <c r="F10" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G10" t="n">
         <v>30600</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" t="n">
         <v>23</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,34 +830,35 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>500</v>
+      </c>
+      <c r="C11" t="n">
         <v>678</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>8674</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>4701</v>
       </c>
-      <c r="E11" t="n">
-        <v>12632</v>
-      </c>
       <c r="F11" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G11" t="n">
         <v>3618</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>10.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -862,34 +867,35 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C12" t="n">
         <v>5422</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>8674</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>4748</v>
       </c>
-      <c r="E12" t="n">
-        <v>12632</v>
-      </c>
       <c r="F12" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G12" t="n">
         <v>4148</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>9</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,34 +904,35 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C13" t="n">
         <v>10841</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>8673</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>7895</v>
       </c>
-      <c r="E13" t="n">
-        <v>12632</v>
-      </c>
       <c r="F13" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G13" t="n">
         <v>8276</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>8</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -934,34 +941,35 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>500</v>
+      </c>
+      <c r="C14" t="n">
         <v>678</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>8672</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>5735</v>
       </c>
-      <c r="E14" t="n">
-        <v>12632</v>
-      </c>
       <c r="F14" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G14" t="n">
         <v>5161</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" t="n">
         <v>10.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -970,34 +978,35 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="n">
         <v>5422</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>8675</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>6001</v>
       </c>
-      <c r="E15" t="n">
-        <v>12632</v>
-      </c>
       <c r="F15" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G15" t="n">
         <v>5808</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" t="n">
         <v>9</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1006,34 +1015,35 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C16" t="n">
         <v>10841</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>8672</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>12031</v>
       </c>
-      <c r="E16" t="n">
-        <v>12632</v>
-      </c>
       <c r="F16" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G16" t="n">
         <v>11562</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>10.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1042,34 +1052,35 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C17" t="n">
         <v>678</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>8673</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>17905</v>
       </c>
-      <c r="E17" t="n">
-        <v>12632</v>
-      </c>
       <c r="F17" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G17" t="n">
         <v>9849</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" t="n">
         <v>10.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1078,34 +1089,35 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C18" t="n">
         <v>5422</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>8675</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>18668</v>
       </c>
-      <c r="E18" t="n">
-        <v>12632</v>
-      </c>
       <c r="F18" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G18" t="n">
         <v>10861</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1114,34 +1126,35 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C19" t="n">
         <v>10841</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>8678</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>21438</v>
       </c>
-      <c r="E19" t="n">
-        <v>12632</v>
-      </c>
       <c r="F19" t="n">
+        <v>12632</v>
+      </c>
+      <c r="G19" t="n">
         <v>13841</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>13</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
